--- a/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - Quark or Cubeoid.xlsx
+++ b/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - Quark or Cubeoid.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C013238-0396-49CE-8F3F-88D97B5C65BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="20">
   <si>
     <t>B</t>
   </si>
@@ -74,12 +75,15 @@
   <si>
     <t>Green</t>
   </si>
+  <si>
+    <t>g</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +243,14 @@
       <color rgb="FFFF66CC"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -259,7 +271,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 6"/>
+        <xdr:cNvPr id="18" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -299,7 +317,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1034" name="Picture 10"/>
+        <xdr:cNvPr id="1034" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -339,7 +363,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1036" name="Picture 12"/>
+        <xdr:cNvPr id="1036" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -379,7 +409,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1038" name="Picture 14"/>
+        <xdr:cNvPr id="1038" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -419,7 +455,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1040" name="Picture 16"/>
+        <xdr:cNvPr id="1040" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -459,7 +501,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1042" name="Picture 18"/>
+        <xdr:cNvPr id="1042" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -499,7 +547,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 4"/>
+        <xdr:cNvPr id="25" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -539,7 +593,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1044" name="Picture 20"/>
+        <xdr:cNvPr id="1044" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -568,9 +628,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -608,7 +668,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -642,6 +702,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -676,9 +737,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -851,21 +913,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CL72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="BP15" sqref="BP15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="BV9" sqref="BV9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="34" width="2.85546875" customWidth="1"/>
     <col min="35" max="35" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="98" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -957,7 +1019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:76">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1055,7 +1117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:76">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1159,7 +1221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:76">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1263,7 +1325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:76">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1367,7 +1429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:76">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1471,7 +1533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:76">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1575,7 +1637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:76">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1679,7 +1741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:76">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1777,13 +1839,13 @@
         <v>2</v>
       </c>
       <c r="BV9" s="8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BX9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:76">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1887,7 +1949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:76">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1991,7 +2053,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:76">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2095,7 +2157,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:76">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2193,7 +2255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:76">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2291,7 +2353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:76">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2389,7 +2451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:76">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2487,7 +2549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:90">
+    <row r="19" spans="1:90" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>0</v>
       </c>
@@ -2584,7 +2646,7 @@
       <c r="CK19" s="1"/>
       <c r="CL19" s="1"/>
     </row>
-    <row r="20" spans="1:90">
+    <row r="20" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -2682,7 +2744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:90">
+    <row r="21" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2780,7 +2842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:90">
+    <row r="22" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2878,7 +2940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:90">
+    <row r="23" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2976,7 +3038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:90">
+    <row r="24" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -3074,7 +3136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:90">
+    <row r="25" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -3172,7 +3234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:90">
+    <row r="26" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6</v>
       </c>
@@ -3270,7 +3332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:90">
+    <row r="27" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7</v>
       </c>
@@ -3368,7 +3430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:90">
+    <row r="28" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8</v>
       </c>
@@ -3466,7 +3528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:90">
+    <row r="29" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>9</v>
       </c>
@@ -3564,7 +3626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:90">
+    <row r="30" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10</v>
       </c>
@@ -3662,7 +3724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:90">
+    <row r="31" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>11</v>
       </c>
@@ -3760,7 +3822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:90">
+    <row r="32" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>12</v>
       </c>
@@ -3858,7 +3920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:50">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>13</v>
       </c>
@@ -3956,7 +4018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:50">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>14</v>
       </c>
@@ -4054,7 +4116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:50">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>0</v>
       </c>
@@ -4146,7 +4208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:50">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0</v>
       </c>
@@ -4246,7 +4308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:50">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -4346,7 +4408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:50">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -4446,7 +4508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:50">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -4546,7 +4608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:50">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4</v>
       </c>
@@ -4646,7 +4708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:50">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -4746,7 +4808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:50">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>6</v>
       </c>
@@ -4846,7 +4908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:50">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>7</v>
       </c>
@@ -4946,7 +5008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:50">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8</v>
       </c>
@@ -5046,7 +5108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:50">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>9</v>
       </c>
@@ -5146,7 +5208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:85">
+    <row r="49" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10</v>
       </c>
@@ -5256,7 +5318,7 @@
       <c r="CF49" s="1"/>
       <c r="CG49" s="1"/>
     </row>
-    <row r="50" spans="1:85">
+    <row r="50" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>11</v>
       </c>
@@ -5356,7 +5418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:85">
+    <row r="51" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>12</v>
       </c>
@@ -5456,7 +5518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:85">
+    <row r="52" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>13</v>
       </c>
@@ -5556,7 +5618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:85">
+    <row r="53" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>14</v>
       </c>
@@ -5656,11 +5718,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:85">
+    <row r="54" spans="1:85" x14ac:dyDescent="0.25">
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
     </row>
-    <row r="57" spans="1:85">
+    <row r="57" spans="1:85" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>0</v>
       </c>
@@ -5752,7 +5814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:85">
+    <row r="58" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0</v>
       </c>
@@ -5850,7 +5912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:85">
+    <row r="59" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -5948,7 +6010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:85">
+    <row r="60" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -6046,7 +6108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:85">
+    <row r="61" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -6144,7 +6206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:85">
+    <row r="62" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4</v>
       </c>
@@ -6242,7 +6304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:85">
+    <row r="63" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5</v>
       </c>
@@ -6340,7 +6402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:85">
+    <row r="64" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6</v>
       </c>
@@ -6438,7 +6500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:50">
+    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7</v>
       </c>
@@ -6536,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:50">
+    <row r="66" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8</v>
       </c>
@@ -6634,7 +6696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:50">
+    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>9</v>
       </c>
@@ -6732,7 +6794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:50">
+    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>10</v>
       </c>
@@ -6830,7 +6892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:50">
+    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>11</v>
       </c>
@@ -6928,7 +6990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:50">
+    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>12</v>
       </c>
@@ -7026,7 +7088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:50">
+    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>13</v>
       </c>
@@ -7124,7 +7186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:50">
+    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>14</v>
       </c>
@@ -7230,24 +7292,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
